--- a/DataSet/INSA-AirbusFHS-DatasetPN_D-E-F.xlsx
+++ b/DataSet/INSA-AirbusFHS-DatasetPN_D-E-F.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Removals" sheetId="1" state="visible" r:id="rId2"/>
@@ -2944,7 +2944,7 @@
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.13"/>
@@ -21355,11 +21355,11 @@
   </sheetPr>
   <dimension ref="A1:H690"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6015625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22"/>
@@ -39140,11 +39140,11 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
